--- a/EWMA-tf example (5).xlsx
+++ b/EWMA-tf example (5).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhejianpeng/Desktop/Commodity_VaR/Commodity_VaR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057F69D3-8897-0C47-B4B8-9CE98771DD91}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3832C6-941B-3F4B-BBFC-AB8BB2087416}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="20500" windowHeight="16540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6723,8 +6723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K1252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1214" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D1251"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7044,6 +7044,10 @@
         <f t="shared" si="0"/>
         <v>-0.1352534770548284</v>
       </c>
+      <c r="J15" t="e">
+        <f>1/(PI*I2*I2)</f>
+        <v>#NAME?</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -28058,7 +28062,10 @@
       </c>
     </row>
     <row r="1252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D1252" s="1"/>
+      <c r="D1252" s="1">
+        <f>SUM(D2:D1251)</f>
+        <v>11.604008485857339</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EWMA-tf example (5).xlsx
+++ b/EWMA-tf example (5).xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhejianpeng/Desktop/Commodity_VaR/Commodity_VaR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3832C6-941B-3F4B-BBFC-AB8BB2087416}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F8A1E4-D2A2-4C4B-B274-73614F9E1CD0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="20500" windowHeight="16540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="20500" windowHeight="16540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
 </workbook>
@@ -6723,8 +6724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K1252"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -28071,4 +28072,6274 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="2" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D23E3C-D8C9-9F44-924E-ADDDF62F8363}">
+  <dimension ref="A1:A1251"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>-5.8339135327314224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>-5.6989528337468878</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2.8291717468912001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-2.8538383728846659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2.8924156364615858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2.9963837329922955</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-3.1119924989208263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.73801412343977224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2.027123373115431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1.3041849927582303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.72978082313560066</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1.8828733305733136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.20020182617191115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>-0.1352534770548284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.41185797497239729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1.9810687428820177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>-0.39658337988012304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>-1.9426840153384366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>-0.6371792924767633</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1.6275100175072421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6.3055659711006712E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0.1280271375396482</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1.2130372819622173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1.5643420013053795</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0.31526651882959228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.70083501833642192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>-1.0688501648146476</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>-0.50970675233806517</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>-4.9480363630801545</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1.0209961393681775</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>-0.61049542062548734</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>-2.1271782210310421</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>-1.8167871968195095</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2.2613116149336401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>-0.42337055955445396</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1.0294895174828158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.48457033371614877</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.21399428863337688</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>-2.3091792597618213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.93580028041843555</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0.6130252591735369</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0.16948915394755318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0.76999861763932531</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1.6312866560653312</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>8.6985869591438877E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>-0.23508422870711471</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>-0.41756920072733711</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>-0.69443918002492455</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>3.0879787044775679E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>0.45005225475112853</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>8.2145168654388256E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1.1326054262041074</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>-0.15788934617477199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>9.6345270718135811E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>3.258298351071201E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>0.26443444620335493</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>-0.73003990359265758</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>0.77387689061255127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>0.67467675569724461</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1.4240317868956445</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>-0.1989043981746714</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>-0.70147780446958397</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>-0.64360712910667361</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1.3494602583894828</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>-0.23655388641365882</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>0.31402885161546013</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>0.52859216245992713</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>-0.60113971142001399</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>-2.0376842163970097</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>0.22938715316297467</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1.4354548433566756</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>6.8537369257614972E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>0.75975165459755822</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>-0.34740634475986532</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>-0.42304786682715745</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>0.50159939135557019</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>-1.500056006044223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1.0937972131315918</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>-1.0321363754122679</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>0.4135341692078191</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>-0.78568426155918836</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>-0.93655362570036238</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1.3615792083603124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1.464068381453677</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>0.66072838112037557</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>-0.3849783530010174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>-1.5099930320581001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>0.81868596142945926</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1.0294463282604818</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>0.69622003226061735</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>0.54660048518547755</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>0.85717764573517718</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>3.5414560392783914E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>-0.71141840013638202</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>-1.2909641294260132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>-2.3806766715521843</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1.5762367827204056</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>-0.16424146723712116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>-1.7786722793108607</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1.4594169918955735</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>0.87991786818955453</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1.8858274239044936</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>0.24284465158563595</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>-1.6968958412796273</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>0.66119637729955072</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>-0.8680003688133372</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>-0.54903150096259556</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>-0.74100105030247787</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>1.9095178826338288</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>-2.9722178267775009E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>-0.38535697187666035</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>1.0518231078268596</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>0.45471414661795284</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>9.1947386499768718E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>0.46547149607272126</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>-0.15672309185686695</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>-1.6714940646489505</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>0.50024537925200618</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>1.2670961231288902</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>0.21701061392806123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>-0.66662887835584639</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>1.2732109871392894E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>-0.3545777321325248</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>0.34113005802014179</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>-1.7199727135042839</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>-0.32572386654545415</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>-2.4655350048553624</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>-0.2815144328226839</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>-2.7017002194243895</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>-2.1510306839189011</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>1.5528877270332477</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>-0.63395992756030894</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>2.8181124555807319E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>0.79032181953821068</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>-2.8396969372023309</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>0.65453148843084274</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>1.0815638172213498</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>2.3383021406913596</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>-1.6788518280742519</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>0.50278889863766174</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>-0.55132898966537869</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>-1.2003082836790062</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>-1.0818218594471554</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>1.5532288575693538</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>1.3727831957653471</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>-1.7751365759352503E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>0.21613620039821665</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>0.80276875798658009</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>-0.89561102795266812</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>0.97028373286985958</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>-1.0203974983204565</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>-1.7867128494927702</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>1.6937663377620897</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>-0.41427446319401251</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>0.887639531154644</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>0.56406890584184333</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>-0.57439246494310892</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>-9.9511293701895098E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>-1.1986361762564832</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>-0.92070113891037864</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>1.2096049801461191</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>-0.46900436734087653</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>0.12213711796415223</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>0.3988141023586495</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>-0.80824031770097038</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>2.8445627623258467</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>0.87240681885850446</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>-0.71286536153017632</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>0.49816429996075323</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>-0.28135295722670745</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>0.5284013157145665</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>0.37484345997060026</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>-0.48221611316423846</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>1.4445077421981254</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>0.4494553830949663</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>-0.22643382539420998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>0.12420101086223145</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>1.4353636690810851</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>-0.50253689878293306</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>0.63532931396346692</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>-0.11540046667258164</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>-0.87173975133546844</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>0.57380226456493788</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>-0.84228076503278448</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>-0.88941688550048614</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>0.24480255258598194</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>-0.18094309737317463</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>-2.6134684722022778</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>1.4590903396669981</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>0.49670362845477262</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>-0.46408486690989281</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>-0.15208634838213664</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>1.1773676192573541</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>-4.4560284512885823E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>-0.674034186477249</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>1.2255645421731109</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>-2.7848446752145999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>0.31648002625299815</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>-0.8254433925982273</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>1.2375819261866965</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>-1.977460379252467</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>0.13153796920982652</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>-0.71208194443932249</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>-0.67664532398468702</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>1.9575146434769262</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>-0.31948663477357503</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>-0.98949836815608405</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>-0.53775493986204248</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>-1.3326709710298368</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>0.29970809827923983</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>-1.2805590829401885</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>1.3779857605416186</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>-1.7636277711487442</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>0.85321449279204831</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>2.1796731251823989</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>-0.46348787138507186</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>0.3027574885896584</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>-0.70906953113097149</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>-0.5505833183777693</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>1.1204456663358078</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>1.4140520328389876</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>9.9619734194223583E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>0.58751134655357518</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>-2.1001711175074811</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>0.51664822526125331</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>-0.41206296404029563</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>-1.1269318313650474</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>-0.87265286788819396</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>1.0488880948838211</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>0.35585661115426076</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>0.99742946305950597</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>0.41791534519245299</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>0.31178297579947389</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>-1.5907403640353155</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>-0.55865551808298053</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>-8.8699935444141856E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>-1.105253061947155</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>-0.63939611769035676</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>-1.9116858102427763</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>-3.3963381354843503E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>-1.7203547420329199</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>0.57680584207603158</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>0.74392749931083091</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>-1.1332024286588067</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>0.40048859905431072</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>-0.99136216578405467</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>-4.4857704677149134E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>-1.4929239302041117</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>-0.87301496242525756</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>-2.5885345913683944</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>2.2335013385789519</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>1.7615843270148008</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>-0.1122978851173399</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>-0.32744541916423991</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>1.1387263485666934</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>0.21846610360722193</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>-1.1030997696012523</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>1.700448439947216</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>1.1988400558070187</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>-0.71972340005660107</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>-1.0493857022344701</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>-0.73051901505611483</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>0.70798468116870261</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>-0.55066802831922601</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>3.0540641599590579E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>0.61539528071129856</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>1.0315749856338483</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>-1.1283275018444225</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>-0.33846458074238822</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>0.4056827247470105</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>0.42356178032578112</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>-1.1165416390336442</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>-0.2214446900138782</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>1.2765046670938056</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>0.49843908669146408</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>-3.2373431773035401E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>-1.0445748560888819</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>-1.3629734238440583</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>-0.24611913390802653</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>-0.34590341460293272</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>0.52680141639209022</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>-1.9814881495944228</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>-0.14070694768036923</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>-1.189182758918206</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>2.258965045068912</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>-0.55670123455697851</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>0.92073303897727821</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>-1.1439226201653641</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>-0.98454460268722754</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>2.3189151216577848</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>-1.3211417766995568</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>0.90921642957132243</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>1.842268993381414</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>0.19389888012647225</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>-0.41219224118683545</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>-0.39974389028333762</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>-0.62504398372766756</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>0.43945628484305843</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>1.4307707247311627</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>0.17920138499855748</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>0.22473338382053529</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>-0.10259136013930494</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>-0.18627595442900718</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>0.17458381515291554</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>-1.0057217459254191</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>0.56075211326749796</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>-1.4546829656707498</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>-0.12651951654909843</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>0.40929707546011773</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>1.7005405562420277</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>-0.30380206276558003</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>0.60199190284259496</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>-6.9758450604589961E-2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>-0.81091689635509689</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>-5.6239350463322867E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>0.61730373420250839</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>0.56072233200898403</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>0.44845742014983087</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>-0.51519383050556078</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>-0.15907274653271908</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>1.0004396127864725</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>-0.15106188475596816</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>-0.31545637696615453</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>0.52903727613131513</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>-1.0460635542948691</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>-0.16815196809299932</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>0.28806232399351195</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>1.2035877981624257</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>0.37273997081680371</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>-0.14327154343122772</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>0.68872527885965062</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>-0.17288197641607722</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>-0.24417755133088012</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>-0.84121645406821532</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>0.25244828746579417</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>-0.86354104493411377</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>1.0567762372015697</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>0.47769733998821168</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>0.63954653844477405</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>0.38182590591637638</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>-0.77292284441992465</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>-0.17493232345143128</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>0.37652277558498437</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>2.1183166800080109</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>-2.1884607568060432</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>-0.33793228896501787</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>-0.58095687551476849</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>-1.1555883045038888</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>0.36413430116950396</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>1.1876674395062385</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>0.45573898829173232</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>-8.8033264955229479E-2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>-0.60288143253205795</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>0.58429462711708813</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>-0.31505529641106766</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>-0.88780129345928827</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>-1.0939530637163148</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>0.81805534594411122</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>-1.7972952565606164</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>0.24287323413639467</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>-0.76372949062041429</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>-0.1741154321631764</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>-2.0979603320090559</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>-0.63862415033992781</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>-0.80539008962335434</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>2.6341178871280269</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>-1.7804627690214894</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>0.68223895396556733</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>0.25419575840627584</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>-1.0721349062198415</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>-0.30170708626605625</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>2.3451572424299911</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>0.70426599134094026</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>-0.17218633683021892</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>0.79500511948376451</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>1.5631857381567296</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>0.35814224919005311</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>-1.3923174336488184</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>0.31022896833720437</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>-1.0135053459754457</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>1.4699321519197999</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>0.36605805569154054</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>-0.20218612487792847</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>0.15222045193565645</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>-1.1710328196902535</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>1.5079364596640674</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>0.36887334153573709</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>-0.84090682570696085</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>1.40232913807394</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>1.5813889384648434</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>-0.28246237595262708</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>1.6947465424041245E-2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>0.66797031633635973</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>-2.581055942178476E-2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>-0.93674829210594834</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>-1.1672043582618274</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>0.1251834240622427</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>-0.81542314153559947</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>1.380529103543864</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>-1.4055844976831637</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>0.19691925005077224</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>0.66661266151373377</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>1.215622236493807</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>-0.44918350497008741</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>-0.10054736334900223</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>0.28797521765076362</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>-1.9557212579803898</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>-0.11064181270027526</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>1.4365434714939254</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>-2.100219067735245</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>0.65790647503079858</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>0.30809334643545827</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>0.35520672730902714</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>-2.5842383629497969</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>1.7661674391709161</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>-2.3935386604588529</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>2.5309155645716364</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>-1.008875673524988</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>-0.32954455950780903</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>0.27202265702801376</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>3.6149194034669409E-2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>-3.2702385954276139</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>1.7911946115186783</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>-0.23394220001270752</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>-2.0084956501809401</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>-1.4956262363913446</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>-1.4744684081948602</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>-2.3131134408268919</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>-1.0151796722814141</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>-3.1755823468993194</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>2.0526905525778063</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>2.6123142004986901</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>-0.64256881953075295</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>-2.7257625196441677</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>1.6808381768896199</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>-0.63810499767006212</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>1.3971348966736892</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>-0.62145859934473435</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>-1.3003939007913075</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>-0.84298138368430708</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>-1.2590783996339259</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>-1.1005510059582442</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>2.2099110585409316</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>8.8025554543215603E-2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>1.3799206055435234</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>0.85313805974834178</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>0.1791645517814795</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>9.2314802031558438E-2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>-1.1384663667887018</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>-0.84017151062313589</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>0.61979906799385254</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>-0.66903089918716507</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>-0.71005687108235438</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>-1.4119654370697512</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>1.8505041462931886</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>-1.8113762918596192</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>8.7688172134111689E-2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>0.22619913654598217</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>-1.9277715695663056</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>-1.5700248850446858</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>1.0325218573474648</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>1.601160888882909</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>0.19867612657411121</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>1.3103435165704631</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>0.31649828028330951</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>-2.2511722182412233</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>1.0542369332110915</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A484">
+        <v>0.5425837762512481</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485">
+        <v>-0.50833158015243307</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A486">
+        <v>0.69258377440978081</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A487">
+        <v>1.0343619751810607</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A488">
+        <v>-0.50807489206180667</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A489">
+        <v>0.31871390969928537</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>-1.0612866016756937</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>0.97821796691910945</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>-0.65021427153710032</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>1.0991885041144465</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494">
+        <v>0.14697938609346076</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A495">
+        <v>4.7949024155244886E-2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A496">
+        <v>0.24268948799580931</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497">
+        <v>-0.31046715718301532</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A498">
+        <v>-0.57666834226676367</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A499">
+        <v>0.30739440225861225</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A500">
+        <v>0.1394756604347637</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A501">
+        <v>-0.26188496080051216</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>0.7457317472583832</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>0.68995377767008137</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>0.10944389683256964</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>0.16349513257936124</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>0.33421972240987474</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>-0.65519565956631021</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>0.14070411252728543</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509">
+        <v>-1.148269347823242</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A510">
+        <v>-0.51672257831911661</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A511">
+        <v>0.31108637187598859</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A512">
+        <v>-1.0820460059053145</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A513">
+        <v>0.42679529677516059</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>0.21014313387830258</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A516">
+        <v>-1.7233251320194147</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A517">
+        <v>1.2433711945177091</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A518">
+        <v>-0.55131558214833043</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A519">
+        <v>-0.27111465136400398</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A520">
+        <v>0.40391298240969731</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A521">
+        <v>0.30096336692856784</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A522">
+        <v>1.2499302868120472</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A523">
+        <v>-0.99175899166547421</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A524">
+        <v>-0.71421960877097646</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A525">
+        <v>0.30119613817891877</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A526">
+        <v>9.8753010961405735E-2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A528">
+        <v>0.12045716746576803</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A529">
+        <v>1.1610268546782689</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A530">
+        <v>-0.17745050290539177</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A531">
+        <v>-1.2344058903380546</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A532">
+        <v>5.837026103046495E-2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533">
+        <v>0.39982742054521997</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A534">
+        <v>-0.63346024490436859</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A536">
+        <v>-1.1680671002742515</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A537">
+        <v>-0.46981283367676852</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A538">
+        <v>-0.22754945371250163</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539">
+        <v>-0.56140717429429909</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A540">
+        <v>-0.84469192297725748</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A541">
+        <v>0.88381681163172332</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A542">
+        <v>-0.88815654843839398</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A543">
+        <v>-0.32259862328539157</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A544">
+        <v>-0.44611424191837945</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545">
+        <v>-1.5052653226460926</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A546">
+        <v>-1.1219266457864958</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A547">
+        <v>0.85466004849461086</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A548">
+        <v>-1.3096006446047599</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A549">
+        <v>0.23960835064100444</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A550">
+        <v>-0.91288644915774897</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551">
+        <v>1.8553766381602879</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A552">
+        <v>-3.4514390468140262E-2</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A553">
+        <v>2.1049919009859162</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A554">
+        <v>0.24522199825153476</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A555">
+        <v>-0.41605807220424934</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A556">
+        <v>1.310077857186404</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557">
+        <v>0.98918187321964024</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A558">
+        <v>-0.35492301604814736</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A559">
+        <v>0.19933191407496392</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560">
+        <v>2.3356803388920468</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A561">
+        <v>-0.91415712563075546</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A562">
+        <v>0.55078399615236406</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563">
+        <v>-0.85610469839719516</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A564">
+        <v>-0.95765466764323337</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A565">
+        <v>0.46206524744666927</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A566">
+        <v>0.3830165812155652</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A567">
+        <v>1.6081191755673641</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A568">
+        <v>0.40766823676267189</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569">
+        <v>-0.65987183785536829</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A570">
+        <v>-0.96198652058094314</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A571">
+        <v>0.47528367524597342</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A572">
+        <v>1.7806679708271869</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A573">
+        <v>-0.10846346834149137</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A574">
+        <v>-0.66420893988761165</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A575">
+        <v>0.3211658902473693</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A576">
+        <v>0.84637091214554705</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A577">
+        <v>0.36181449100128593</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A578">
+        <v>-1.3793751422872369</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A579">
+        <v>0.86126999666061199</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A580">
+        <v>-0.13282544071818062</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A581">
+        <v>1.354551534079246E-2</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A582">
+        <v>0.83171517976065323</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A583">
+        <v>-0.48327820994923038</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A584">
+        <v>6.9198576568684275E-3</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A585">
+        <v>1.2329440938865337</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A586">
+        <v>-0.14136816872486704</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A587">
+        <v>-5.4902427991383299E-2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A588">
+        <v>1.2263837821937897</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A589">
+        <v>-6.0355681872813309E-2</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A590">
+        <v>0.1228015972679484</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A591">
+        <v>-0.74377568101866764</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A592">
+        <v>1.0214397625784322</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A593">
+        <v>-0.40533300157016999</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A594">
+        <v>-0.46585239060572181</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A595">
+        <v>-1.5528749365354215</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A596">
+        <v>0.32375137447663699</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A597">
+        <v>-0.15627098981188633</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A598">
+        <v>1.234187766839357</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A599">
+        <v>-5.8333040776979588E-2</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A600">
+        <v>-0.27387842432805393</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A601">
+        <v>-0.45749545055006413</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A603">
+        <v>1.6985759495624393</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A604">
+        <v>-0.62576192404953646</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A605">
+        <v>2.2817838160616982E-2</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A606">
+        <v>0.8645666766053689</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A607">
+        <v>1.2094584928672529</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A608">
+        <v>0.628764328390642</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A609">
+        <v>-0.13855951663505281</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A610">
+        <v>0.46760240272484149</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A611">
+        <v>-7.4060063260037281E-3</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A612">
+        <v>-0.39680846669091757</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A613">
+        <v>0.10804820989286035</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A614">
+        <v>-0.10877960409865138</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A615">
+        <v>-0.11118050408030354</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A616">
+        <v>-0.93601882193918917</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A617">
+        <v>-0.70993633210862794</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A618">
+        <v>0.10959375039258393</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A619">
+        <v>0.37524859649418069</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A620">
+        <v>0.28317649387256799</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A621">
+        <v>-1.4755136960023145</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A622">
+        <v>-0.57541402491491744</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A623">
+        <v>0.58072040981885586</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A624">
+        <v>1.1178412237261259</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A625">
+        <v>0.12199176000362436</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A626">
+        <v>7.9419161655966727E-2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A627">
+        <v>-7.1535630775769313E-2</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A628">
+        <v>0.64276578304820231</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A630">
+        <v>-0.35119526639376447</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A631">
+        <v>-0.89038221577558962</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A632">
+        <v>-0.7651904739313824</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A633">
+        <v>9.1123154743275772E-2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A634">
+        <v>6.1573645151007321E-2</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A635">
+        <v>1.2618070127187697</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A636">
+        <v>0.32202321512217114</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A637">
+        <v>1.7775253811353342</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A638">
+        <v>0.66302277235441298</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A639">
+        <v>9.4860692398995687E-3</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A640">
+        <v>0.53814502454920754</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A641">
+        <v>1.9303275083126792E-2</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A642">
+        <v>-9.793361681228286E-3</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A643">
+        <v>1.626519551285968</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A644">
+        <v>0.58576806478489218</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A645">
+        <v>0.16125104786513458</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A646">
+        <v>9.596576250632996E-3</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A647">
+        <v>-0.19439627137486773</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A648">
+        <v>0.76906040918039509</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A649">
+        <v>4.9338048762066759E-2</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A650">
+        <v>0.70833191476903312</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A651">
+        <v>0.76708702360419867</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A652">
+        <v>-0.47526915135650233</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A653">
+        <v>-0.85670819796409725</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A654">
+        <v>1.1748419292824719</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A655">
+        <v>0.24180576755210309</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A656">
+        <v>-0.88982313897711895</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A657">
+        <v>0.82042786709464322</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A658">
+        <v>0.52298780390107968</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A659">
+        <v>-0.96966214839732756</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A660">
+        <v>-1.7158560500999458</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A661">
+        <v>0.76007850468019666</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A662">
+        <v>0.54422003578622258</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A663">
+        <v>0.61786949682554759</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A664">
+        <v>1.3481480947426634</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A665">
+        <v>-7.031938908007275E-2</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A666">
+        <v>0.25533458802581099</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A667">
+        <v>6.1941770927359002E-2</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A668">
+        <v>-5.2309993601395495E-2</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A669">
+        <v>-0.349295719455752</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A670">
+        <v>-0.78858408936993485</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A671">
+        <v>-1.4930039246780289</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A672">
+        <v>-0.29491666862703586</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A673">
+        <v>0.6436382809607667</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A674">
+        <v>0.7974783975476476</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A676">
+        <v>0.90896850052197764</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A677">
+        <v>1.0005538390898978</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A678">
+        <v>0.91531493168449352</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A679">
+        <v>-3.2967328228058271E-2</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A680">
+        <v>0.52592393328364073</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A681">
+        <v>0.62975434196768443</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A682">
+        <v>1.4388196862519482</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A683">
+        <v>7.6692731720748961E-2</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A684">
+        <v>-3.3420053483579452E-2</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A685">
+        <v>-4.5209924401458434E-2</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A686">
+        <v>0.57341323987742354</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A687">
+        <v>-0.61660178122430254</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A688">
+        <v>-1.5891552883464011</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A689">
+        <v>-0.1960216527921799</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A690">
+        <v>1.5299150060705917</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A691">
+        <v>-0.4506869719248166</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A692">
+        <v>-0.435129421616679</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A693">
+        <v>-2.0281665909697981</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A694">
+        <v>-0.64267081382253477</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A695">
+        <v>1.1806512167483747</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A696">
+        <v>1.1046509544860319</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A697">
+        <v>0.11143641483934363</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A698">
+        <v>0.78596420282317625</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A699">
+        <v>0.59568649075166236</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A700">
+        <v>-2.2616314577637117E-2</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A701">
+        <v>-0.32048813573226215</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A702">
+        <v>1.2502696032972074</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A703">
+        <v>3.4317474756189799E-2</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A704">
+        <v>-0.69997841881999168</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A705">
+        <v>0.39981108154249162</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A706">
+        <v>-0.46040717881984644</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A707">
+        <v>-1.3192240571184779</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A708">
+        <v>1.1869251993778018</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A709">
+        <v>-1.2876736191244897</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A710">
+        <v>-0.77612434485408321</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A711">
+        <v>-1.0201514386956594</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A712">
+        <v>-2.2496551328073151</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A713">
+        <v>1.2019293767449459</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A714">
+        <v>-1.6267573843300089</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A715">
+        <v>-4.6127964447364611E-2</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A716">
+        <v>0.75449095435384317</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A717">
+        <v>-0.44166529694240464</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A718">
+        <v>1.649470569144297</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A719">
+        <v>-6.7568323602966232E-2</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A720">
+        <v>1.2741712014870059</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A721">
+        <v>-0.27782355738956283</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A722">
+        <v>0.44096404839755632</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A723">
+        <v>-1.1281414411313535</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A724">
+        <v>0.54021227395072602</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A725">
+        <v>1.6467506951890964</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A726">
+        <v>-5.5087349842972845E-2</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A727">
+        <v>-2.239173482108673E-2</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A728">
+        <v>-1.5408569315416103</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A729">
+        <v>-0.15902616494511748</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A730">
+        <v>1.1459262556528154</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A731">
+        <v>-0.29394145102551011</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A732">
+        <v>1.1530974117822907E-2</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A733">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A734">
+        <v>-1.9942534981759183</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A735">
+        <v>0.63758832127884379</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A736">
+        <v>1.0661654169356627</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A737">
+        <v>0.80632642394204168</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A738">
+        <v>-0.85540150369470724</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A739">
+        <v>1.6769159953439405</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A740">
+        <v>-2.1987124878769113E-2</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A741">
+        <v>-0.68645002337723882</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A742">
+        <v>2.2720162300116344E-2</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A743">
+        <v>-0.1619932120482202</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A744">
+        <v>0.56313974099825204</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A745">
+        <v>0.95392945508194038</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A746">
+        <v>-9.318841175750002E-2</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A747">
+        <v>0.49829468822798145</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A748">
+        <v>-0.53521463076352693</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A749">
+        <v>0.47348366715643869</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A750">
+        <v>0.73062476998536541</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A751">
+        <v>0.83841117965094403</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A752">
+        <v>0.9071969719297871</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A753">
+        <v>0.41228723033481901</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A754">
+        <v>-0.11010013544435994</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A755">
+        <v>-0.14906787624286486</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A756">
+        <v>2.5271019559310038E-2</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A757">
+        <v>-0.85894003836817168</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A758">
+        <v>1.6749957660984152</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A759">
+        <v>-0.16128435358720739</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A760">
+        <v>-1.2618734225753216E-2</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A761">
+        <v>0.4097537745299642</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A762">
+        <v>0.52946818606446022</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A763">
+        <v>-0.41477025796490841</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A764">
+        <v>-0.56432541866674679</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A765">
+        <v>0.6946258101912367</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A766">
+        <v>0.65696149520269309</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A767">
+        <v>-1.2075366162505559</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A768">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A769">
+        <v>1.317267213382213</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A770">
+        <v>-1.1021445329130017</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A771">
+        <v>-1.6110067910056451</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A772">
+        <v>-1.1986702946655987</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A773">
+        <v>-6.7132584313182905E-2</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A774">
+        <v>-0.67724084360777292</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A775">
+        <v>0.83735284106249097</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A776">
+        <v>-1.5168290575582195</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A777">
+        <v>-0.61616083772109931</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A778">
+        <v>0.77692439403658187</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A779">
+        <v>0.77463446009547321</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A780">
+        <v>-5.5670572719668902E-2</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A781">
+        <v>-2.6539843983894622</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A782">
+        <v>-9.2604930805316218E-2</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A783">
+        <v>-0.40285360304060963</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A784">
+        <v>0.71956424127047602</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A785">
+        <v>4.0985539904303814E-2</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A786">
+        <v>1.5220646486741027</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A787">
+        <v>0.98325238190998077</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A788">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A789">
+        <v>0.94929948701195765</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A790">
+        <v>0.78766789002785209</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A791">
+        <v>0.4611053432438858</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A792">
+        <v>0.25267890683272609</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A793">
+        <v>0.21538369182640921</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A794">
+        <v>-0.7949933602106285</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A795">
+        <v>0.3311721944787136</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A796">
+        <v>0.18144372562595432</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A797">
+        <v>-0.22598461907410919</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A798">
+        <v>1.711469748230344</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A799">
+        <v>1.0186852399732012</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A800">
+        <v>0.27261098869247929</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A801">
+        <v>0.27593109770967522</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A802">
+        <v>1.6977070298068038</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A803">
+        <v>0.25599751693237621</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A804">
+        <v>0.3682410943684129</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A805">
+        <v>0.76905386040124912</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A806">
+        <v>0.2489364592920614</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A807">
+        <v>8.4007740809787984E-2</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A808">
+        <v>-0.38134763268625704</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A809">
+        <v>0.74586536905312895</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A810">
+        <v>0.47661249055784555</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A811">
+        <v>-0.27615841793323209</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A812">
+        <v>-1.1364383487737175</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A813">
+        <v>1.3750807426957639</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A814">
+        <v>1.0895231401770875</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A815">
+        <v>-0.86194368568467772</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A816">
+        <v>-0.61606213181781166</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A817">
+        <v>1.4634049161658997E-2</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A818">
+        <v>0.43056137291537366</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A819">
+        <v>0.31521679321402118</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A820">
+        <v>-0.77872430502919521</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A821">
+        <v>0.76244203423545642</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A822">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A823">
+        <v>1.8134023857033454</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A824">
+        <v>0.68591383995901323</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A825">
+        <v>-0.20990755770797243</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A826">
+        <v>-7.6161985903982599E-2</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A827">
+        <v>0.67920795711006188</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A828">
+        <v>0.12458587175839063</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A829">
+        <v>0.41057789163927028</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A830">
+        <v>2.3034127095929624</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A831">
+        <v>0.41614257063282228</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A832">
+        <v>-1.313754814024823</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A833">
+        <v>-0.35431160708728532</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A834">
+        <v>1.2877618084972555</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A835">
+        <v>0.46013250296627367</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A836">
+        <v>0.86627422849491653</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A837">
+        <v>1.4883015571153908</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A838">
+        <v>-0.35168199370088743</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A839">
+        <v>-2.1075417772796539</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A840">
+        <v>0.31027311628660048</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A841">
+        <v>1.863976093238223</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A842">
+        <v>-2.5716215322275064</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A843">
+        <v>1.7456810393986353</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A844">
+        <v>-2.1228508054346764</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A845">
+        <v>-1.3228818023603455</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A846">
+        <v>-2.9848036097126354</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A847">
+        <v>-1.6470593239466755</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A848">
+        <v>3.1492207481467172</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A849">
+        <v>0.33337208299900462</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A850">
+        <v>1.7316172424795633</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A851">
+        <v>-0.28496406296620291</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A852">
+        <v>-1.1300841353747326</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A853">
+        <v>-4.913435582367822E-2</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A854">
+        <v>-0.99113921583856579</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A855">
+        <v>-0.87028812867546135</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A856">
+        <v>-2.5364252925209021</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A857">
+        <v>0.7235668818059533</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A858">
+        <v>-0.70409731113334184</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A859">
+        <v>-0.20217943835077265</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A860">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A861">
+        <v>2.4055083745102404</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A862">
+        <v>-0.54796685912483245</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A863">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A864">
+        <v>-1.6107670116362713</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A865">
+        <v>1.4025708053520478</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A866">
+        <v>0.78812547072343042</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A867">
+        <v>-2.2861184112098765</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A868">
+        <v>-1.3574620693900499</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A869">
+        <v>-0.16014021755729466</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A870">
+        <v>0.25591569945539239</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A871">
+        <v>1.350534829335891</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A872">
+        <v>0.84036686587933918</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A873">
+        <v>0.41956326339861549</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A874">
+        <v>0.96056688279245639</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A875">
+        <v>5.0702949608328531E-2</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A876">
+        <v>4.4086596029247041E-2</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A877">
+        <v>-0.13470921780908249</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A878">
+        <v>-0.35744272844955616</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A879">
+        <v>-1.2097927138632689</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A880">
+        <v>-0.10292711456629382</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A881">
+        <v>-0.68064082659201797</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A882">
+        <v>0.85464859004185634</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A883">
+        <v>-0.21129751371777578</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A884">
+        <v>-2.1068639596144587</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A885">
+        <v>-0.44282699063079178</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A886">
+        <v>-0.47794108825358794</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A887">
+        <v>-0.61665866485355936</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A888">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A889">
+        <v>-0.4728597189318457</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A890">
+        <v>1.9238092779398168</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A891">
+        <v>0.58990821064888077</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A892">
+        <v>0.53106381160569649</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A893">
+        <v>-0.29164268360675227</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A894">
+        <v>1.3389734890534042</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A895">
+        <v>4.9080062110268954E-2</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A896">
+        <v>-0.71662262808386945</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A897">
+        <v>-1.7720093887532335</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A898">
+        <v>9.3597578917414076E-2</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A899">
+        <v>1.0983942660062993</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A900">
+        <v>-0.91365518864345907</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A901">
+        <v>1.709705114530693</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A902">
+        <v>1.3513235663042802</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A903">
+        <v>1.0344318139331903</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A904">
+        <v>-0.15121057737420879</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A905">
+        <v>-0.85940825177479163</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A906">
+        <v>-0.17276271744729702</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A907">
+        <v>0.15199524370802467</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A908">
+        <v>0.78705098152144604</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A909">
+        <v>-0.24873713254510718</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A910">
+        <v>0.489757349017933</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A911">
+        <v>-0.65225156466977419</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A912">
+        <v>-0.35954420093163408</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A913">
+        <v>0.72967300689369841</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A914">
+        <v>-1.1086314083931388</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A915">
+        <v>-2.2262803158755031</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A916">
+        <v>-0.25393953196835167</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A917">
+        <v>-0.499607146221349</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A918">
+        <v>0.53567673825602047</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A919">
+        <v>0.82895772582377825</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A920">
+        <v>-0.21804936429121199</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A921">
+        <v>-1.0340145886825565</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A922">
+        <v>6.3479004789987886E-2</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A923">
+        <v>-0.79404183248423466</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A924">
+        <v>-0.664335195970434</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A925">
+        <v>0.87203051227219786</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A926">
+        <v>-0.43522002742233462</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A927">
+        <v>1.628571267048881</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A928">
+        <v>-1.4356069401111258</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A929">
+        <v>7.3909133064018612E-2</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A930">
+        <v>1.9588656517749221</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A931">
+        <v>0.67483023469406933</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A932">
+        <v>0.94699020319068572</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A933">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A934">
+        <v>-1.0763917051342125</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A935">
+        <v>0.41015732918148112</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A936">
+        <v>-7.9154675713498907E-2</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A937">
+        <v>0.17881049681061723</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A938">
+        <v>1.2980971714549325</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A939">
+        <v>-6.133572140941302E-2</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A940">
+        <v>0.31027726470239769</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A941">
+        <v>-0.28601711799643031</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A942">
+        <v>-9.1559058990351855E-3</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A943">
+        <v>1.5629074252751372</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A944">
+        <v>-0.20402848744132848</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A945">
+        <v>-0.65447854050512089</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A946">
+        <v>-0.74745194955927174</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A947">
+        <v>1.8050579712619568</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A948">
+        <v>-0.14068019044908062</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A949">
+        <v>0.53545933235786003</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A950">
+        <v>0.3320761605555515</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A951">
+        <v>-9.9639337570084793E-2</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A952">
+        <v>0.34063516724279619</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A953">
+        <v>-0.86162918586185711</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A954">
+        <v>1.595591063180148</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A955">
+        <v>-0.14420305803677749</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A956">
+        <v>-3.6680773359671494E-2</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A957">
+        <v>0.59439377410840499</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A958">
+        <v>0.14950374104857622</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A959">
+        <v>1.8929593744641152E-2</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A960">
+        <v>1.2181128492075444</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A961">
+        <v>0.150619091689041</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A962">
+        <v>-0.38922578875460384</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A963">
+        <v>0.37790847147721945</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A964">
+        <v>-1.1716560594964942</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A965">
+        <v>0.61800176625595438</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A966">
+        <v>-0.36388928202094539</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A967">
+        <v>0.50099301901454618</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A968">
+        <v>0.48409643465086133</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A969">
+        <v>-0.16251416157575954</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A970">
+        <v>-0.18578142272549525</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A971">
+        <v>-0.61479441648473232</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A972">
+        <v>0.4898724505631567</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A973">
+        <v>-0.31067853826792646</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A974">
+        <v>1.4765126049445634</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A975">
+        <v>0.32774344557344415</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A976">
+        <v>1.6438144482886625</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A977">
+        <v>0.41058324042526867</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A978">
+        <v>-0.17583961431591399</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A979">
+        <v>-0.89939359850949563</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A980">
+        <v>0.62493481702682818</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A981">
+        <v>-0.13848493728696026</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A982">
+        <v>-1.2802237159269774</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A983">
+        <v>0.16255825748641961</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A984">
+        <v>-1.5461704764440614</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A985">
+        <v>0.17444138671158907</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A986">
+        <v>1.6000136156015732</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A987">
+        <v>0.21211883400251408</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A988">
+        <v>0.39700353259088061</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A989">
+        <v>-0.82318815580574356</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A990">
+        <v>1.6901705425647204</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A991">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A992">
+        <v>-0.51844801688409847</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A993">
+        <v>-1.0813028616075091E-2</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A994">
+        <v>-0.44799856109334735</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A995">
+        <v>1.6574608075659756</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A996">
+        <v>1.0164427174296193</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A997">
+        <v>0.33956457007333873</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A998">
+        <v>0.50363779205266213</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A999">
+        <v>0.49844321457035895</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1000">
+        <v>0.20780687454656793</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1001">
+        <v>9.9688208604555975E-2</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1002">
+        <v>1.0317054831991372</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1003">
+        <v>-0.23293218560536186</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1004">
+        <v>-0.15822353662929267</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1005">
+        <v>-0.35353490888269662</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1006">
+        <v>0.84388966962452483</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1007">
+        <v>0.19827599945899446</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1008">
+        <v>0.27181404477970517</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1009">
+        <v>1.1695446381287034</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1010">
+        <v>2.3670332354180749E-2</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1011">
+        <v>-0.16774442562932421</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1012">
+        <v>0.25597185042726517</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1013">
+        <v>-0.33158322866082118</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1014">
+        <v>0.16266501996118721</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1015">
+        <v>-6.3337180785838526E-2</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1016">
+        <v>-0.6487890538528347</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1017">
+        <v>1.5918195486385944</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1018">
+        <v>-1.4047218501860788</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1019">
+        <v>1.1093408099789623</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1020">
+        <v>-0.14819034835487813</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1021">
+        <v>-0.79172627930355577</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1022">
+        <v>0.61889020440083431</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1023">
+        <v>0.58509229512328387</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1024">
+        <v>0.792319708730304</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1025">
+        <v>-5.1444112286352428E-2</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1026">
+        <v>0.76769673494872392</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1027">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1028">
+        <v>0.30606211231056879</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1029">
+        <v>-2.632527068962137</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1030">
+        <v>-1.195215810004516</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1031">
+        <v>-0.47715720076043533</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1032">
+        <v>0.65853616540809967</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1033">
+        <v>0.12531646014492673</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1034">
+        <v>1.585208967024293</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1035">
+        <v>0.18412744191723251</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1036">
+        <v>-2.0528694304802211</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1037">
+        <v>0.64383183982115488</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1038">
+        <v>1.8248043500240434</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1039">
+        <v>-9.130357713570729E-2</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1040">
+        <v>0.11601482432312217</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1041">
+        <v>0.24705299490566132</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1042">
+        <v>0.90948223798161809</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1043">
+        <v>0.68629202043507687</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1044">
+        <v>-0.27355065381096744</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1045">
+        <v>0.25433135422174052</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1046">
+        <v>1.1021223010983812</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1047">
+        <v>0.36474525286549497</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1048">
+        <v>-0.47640262321188415</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1049">
+        <v>0.80568725887392945</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1050">
+        <v>0.74619032736864377</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1051">
+        <v>0.23822724675573664</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1052">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1053">
+        <v>-2.5094144174119744</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1054">
+        <v>-1.6545318020651325</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1055">
+        <v>0.58364548814203909</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1056">
+        <v>2.1094408403648974</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1057">
+        <v>0.12050129271592672</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1058">
+        <v>-1.9046417637471644</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1059">
+        <v>0.53877055150808095</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1060">
+        <v>1.9478369328416107</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1061">
+        <v>-0.31605159648579467</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1062">
+        <v>-1.5617727653471452</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1063">
+        <v>1.4509864508224422</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1064">
+        <v>-0.60430336777652249</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1065">
+        <v>-1.8502867314168359</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1066">
+        <v>0.3375101889720194</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1067">
+        <v>-0.31161287417995032</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1068">
+        <v>-1.0181149936661598</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1069">
+        <v>-0.72021825307388854</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1070">
+        <v>0.26323855988868972</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1071">
+        <v>1.0986236437694146</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1072">
+        <v>1.8424860699594052</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1073">
+        <v>-0.47229118216176857</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1074">
+        <v>0.28123728114067764</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1075">
+        <v>0.6872753316240191</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1076">
+        <v>0.53782648801727251</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1077">
+        <v>-0.36739088055262381</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1078">
+        <v>1.0073467969402272</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1079">
+        <v>1.176554447240753</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1080">
+        <v>0.29447746116729501</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1081">
+        <v>0.39018586297208008</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1082">
+        <v>0.22835522502142896</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1083">
+        <v>0.18923928752611577</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1084">
+        <v>0.20241714825494536</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1085">
+        <v>-0.45074395823693225</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1086">
+        <v>-0.94641663817754418</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1087">
+        <v>-0.76353503762859332</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1088">
+        <v>-1.3116546305747117</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1089">
+        <v>0.17869114361211128</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1090">
+        <v>0.57501221427644356</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1091">
+        <v>0.89009828261071822</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1092">
+        <v>-1.3503889522868209</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1093">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1094">
+        <v>1.8672700473401198</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1095">
+        <v>0.26062007352922822</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1096">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1097">
+        <v>0.74361147656095949</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1098">
+        <v>0.952061717401817</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1099">
+        <v>0.33372613356662328</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1100">
+        <v>0.50571666847532448</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1101">
+        <v>-1.2443964960029865</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1102">
+        <v>-1.1285866564591351</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1103">
+        <v>-1.3343744268623319</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1104">
+        <v>-6.815887792762966E-2</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1106">
+        <v>1.2611095689633869</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1107">
+        <v>1.4727700526557397</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1108">
+        <v>-1.5991733163520541</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1109">
+        <v>0.84102312446471672</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1110">
+        <v>-1.481976899603261</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1111">
+        <v>-1.4082725440700239</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1112">
+        <v>2.1854224020546688E-2</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1113">
+        <v>1.4705291495006687</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1114">
+        <v>0.18220358785275531</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1115">
+        <v>-1.0146831338931559</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1116">
+        <v>-1.3645817921456511</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1117">
+        <v>-0.37323159568506459</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1118">
+        <v>0.9916501333765867</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1119">
+        <v>1.44674981243773</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1120">
+        <v>0.51218695590330399</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1122">
+        <v>1.2115240836423302</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1123">
+        <v>-2.6347400663556839</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1124">
+        <v>-3.9940942857581367E-2</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1125">
+        <v>-1.2015125244831144</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1126">
+        <v>-1.1747136509127041</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1127">
+        <v>9.3072425212057566E-2</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1128">
+        <v>-1.0346326440251965</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1129">
+        <v>0.45542935150162056</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1130">
+        <v>-1.2423890459094036</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1131">
+        <v>-0.21706228722066431</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1132">
+        <v>1.908358640945004</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1133">
+        <v>-1.5405848170807226</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1134">
+        <v>0.23637652640327841</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1135">
+        <v>-0.13527164945546177</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1136">
+        <v>0.86647488366208669</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1137">
+        <v>1.4485824460956114</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1138">
+        <v>-0.58324842750321015</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1139">
+        <v>0.2978137202210806</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1140">
+        <v>-0.34239476338530828</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1141">
+        <v>0.83686110110304457</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1142">
+        <v>1.3789292385267664</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1143">
+        <v>0.315855922449296</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1144">
+        <v>0.66614025125755494</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1145">
+        <v>1.136553820024542</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1147">
+        <v>0.44310452532260702</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1148">
+        <v>0.28096813378971786</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1149">
+        <v>1.3484087529362814</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1150">
+        <v>-0.53159289444446511</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1151">
+        <v>-1.8745885013346959</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1152">
+        <v>-0.43680243494940973</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1153">
+        <v>0.58849447803532273</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1154">
+        <v>-1.1898870818604566</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1155">
+        <v>0.64574081622470503</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1156">
+        <v>-1.4129675626501144</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1157">
+        <v>1.5955232809753039</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1158">
+        <v>-6.034739550951148E-2</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1159">
+        <v>1.095881520507844</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1160">
+        <v>-0.17116013499540988</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1161">
+        <v>-0.800291961306134</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1162">
+        <v>-0.90179650009295675</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1163">
+        <v>-2.3387179270283691</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1164">
+        <v>-6.0427509197340142E-2</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1165">
+        <v>-0.173962487630659</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1166">
+        <v>-0.5500117056603403</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1167">
+        <v>-2.5381456177434751</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1168">
+        <v>0.51183455744216533</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1169">
+        <v>-3.5989721170127718</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1170">
+        <v>-0.9531462310583535</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1171">
+        <v>-4.297546461878567</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1172">
+        <v>2.8589923275897058</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1173">
+        <v>-1.7648991678004557</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1174">
+        <v>1.6313233039192025</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1175">
+        <v>0.35227307297251598</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1176">
+        <v>0.88307738173909511</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1177">
+        <v>-0.39802905867529498</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1178">
+        <v>-0.18813070861767081</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1179">
+        <v>-1.9141755970502679</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1180">
+        <v>-0.65156692814346895</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1181">
+        <v>-0.24175737795413266</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1182">
+        <v>1.7793869978818835</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1183">
+        <v>0.34756873602262867</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1184">
+        <v>-0.74842854646674939</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1185">
+        <v>0.83629007340209305</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1186">
+        <v>1.6711684811013068</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1188">
+        <v>0.20878115715964352</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1189">
+        <v>-0.88008360997777635</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1190">
+        <v>-1.4540144078327435</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1192">
+        <v>-8.8286446873835495E-2</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1193">
+        <v>1.5766637496251512</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1194">
+        <v>-1.2633639205212701</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1195">
+        <v>-1.0902245782486748</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1196">
+        <v>0.3047901073242556</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1197">
+        <v>0.52860654142469132</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1198">
+        <v>0.60501610486746638</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1199">
+        <v>0.68073252259029338</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1200">
+        <v>0.31594475711441533</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1201">
+        <v>-0.8457176329123306</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1202">
+        <v>-0.66749888279541159</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1203">
+        <v>-1.5096129153781581</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1204">
+        <v>-0.97293332618851081</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1205">
+        <v>0.42890255073438094</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1206">
+        <v>0.78505258478009565</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1207">
+        <v>0.87055925910990573</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1208">
+        <v>-1.4263008676489835</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1209">
+        <v>0.63009190878848742</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1210">
+        <v>-1.2067409128924687</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1211">
+        <v>-2.1531927038787089</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1212">
+        <v>2.0411813871257016</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1213">
+        <v>0.71650176474261684</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1214">
+        <v>0.90503844953659152</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1215">
+        <v>-0.73256108485872529</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1216">
+        <v>1.4368103085521573</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1217">
+        <v>0.1430669061006267</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1218">
+        <v>0.37637565889024349</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1219">
+        <v>4.6623894432273952E-2</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1220">
+        <v>0.80137254431633864</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1221">
+        <v>-1.178792624918461</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1222">
+        <v>1.180246634264299</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1223">
+        <v>-0.72984412473111004</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1224">
+        <v>-0.10505630979272776</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1225">
+        <v>0.965355637077568</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1226">
+        <v>1.0431937289889299</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1227">
+        <v>-0.93986473505717183</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1228">
+        <v>0.53981017582598845</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1229">
+        <v>1.9793904365408221</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1230">
+        <v>-0.1741542244629781</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1231">
+        <v>-0.95451550020474996</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1232">
+        <v>-1.0174445526885452</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1233">
+        <v>0.58472658893784768</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1234">
+        <v>0.77467670539602285</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1235">
+        <v>-3.4783664903658598E-2</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1236">
+        <v>-6.0596365356185379E-2</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1237">
+        <v>0.47646738408965694</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1238">
+        <v>-1.8049990503898965</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1239">
+        <v>0.30105071659929011</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1240">
+        <v>1.0898134357425979</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1241">
+        <v>-0.44964205400414553</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1242">
+        <v>0.28535081179217947</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1243">
+        <v>-0.61820705336503723</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1244">
+        <v>-0.50191496436326544</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1245">
+        <v>2.7466373812163533E-2</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1246">
+        <v>-0.95644136982755013</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1247">
+        <v>-0.42228723790027262</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1248">
+        <v>-1.2485041123730851</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1250">
+        <v>-0.48045607831109405</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1251">
+        <v>11.604008485857339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>